--- a/bakery-backend/orders.xlsx
+++ b/bakery-backend/orders.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -421,6 +421,54 @@
       <c r="F1" t="str">
         <v>Order Time</v>
       </c>
+      <c r="G1" t="str">
+        <v>Color</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Design</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Inscription Color</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Icing Color</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Toppings</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Image</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Customer Name</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Customer Email</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Customer Phone</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Delivery Method</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Delivery Address</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Delivery Date</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Delivery Time</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Payment Status</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Paid Amount</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Total Amount</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -442,9 +490,1997 @@
         <v>2/6/2025, 10:47:55 PM</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B3" t="str">
+        <v>passion</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1400</v>
+      </c>
+      <c r="E3" t="str">
+        <v>I want pearls</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2/7/2025, 12:03:39 AM</v>
+      </c>
+      <c r="G3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Sprinkles</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B4" t="str">
+        <v>passion</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>7300</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Let it be colorful</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2/7/2025, 12:09:19 AM</v>
+      </c>
+      <c r="G4" t="str">
+        <v>red</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Wayne's Birthday</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="J4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K4" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B5" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2500</v>
+      </c>
+      <c r="E5" t="str">
+        <v>none</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2/7/2025, 12:24:11 AM</v>
+      </c>
+      <c r="G5" t="str">
+        <v>red</v>
+      </c>
+      <c r="H5" t="str">
+        <v>wweew</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="J5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K5" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B6" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2500</v>
+      </c>
+      <c r="E6" t="str">
+        <v>None</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2/7/2025, 12:26:30 AM</v>
+      </c>
+      <c r="G6" t="str">
+        <v>red</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Wayne's Birthday</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="J6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K6" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B7" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>700</v>
+      </c>
+      <c r="E7" t="str">
+        <v>iiiiii</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2/7/2025, 12:27:25 AM</v>
+      </c>
+      <c r="G7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K7" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B8" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2500</v>
+      </c>
+      <c r="E8" t="str">
+        <v>i want it</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2/7/2025, 12:25:39 PM</v>
+      </c>
+      <c r="G8" t="str">
+        <v>red</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Wayne's Birthday</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="J8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K8" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B9" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E9" t="str">
+        <v>ayaayaayyayay</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2/7/2025, 1:01:16 PM</v>
+      </c>
+      <c r="G9" t="str">
+        <v>red</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Wayne's Birthday</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="J9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L9" t="str">
+        <v>1738922476559-profile.jpeg</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B10" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E10" t="str">
+        <v>tyxfrtjfxgtjfx</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2/7/2025, 1:22:27 PM</v>
+      </c>
+      <c r="G10" t="str">
+        <v>red</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Wayne's Birthday</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="J10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L10" t="str">
+        <v>1738923747148-profile.jpeg</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B11" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E11" t="str">
+        <v>sassaasasaaasas</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2/7/2025, 1:42:37 PM</v>
+      </c>
+      <c r="G11" t="str">
+        <v>red</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Wayne's Birthday</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="J11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L11" t="str">
+        <v>1738924957724-GrasColPn.png</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B12" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E12" t="str">
+        <v>None</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2/7/2025, 1:45:32 PM</v>
+      </c>
+      <c r="G12" t="str">
+        <v>red</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Wayne's Birthday</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="J12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L12" t="str">
+        <v>1738925132037-leaf elm.png</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B13" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>700</v>
+      </c>
+      <c r="E13" t="str">
+        <v>xssaxasxsad</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2/7/2025, 1:50:14 PM</v>
+      </c>
+      <c r="G13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Sprinkles</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B14" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>700</v>
+      </c>
+      <c r="E14" t="str">
+        <v>xssaxasxsad</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2/7/2025, 1:50:14 PM</v>
+      </c>
+      <c r="G14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Sprinkles</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B15" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C15" t="str">
+        <v>6</v>
+      </c>
+      <c r="D15" t="str">
+        <v>700</v>
+      </c>
+      <c r="E15" t="str">
+        <v>fcgtjgjgncfjt</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2/7/2025, 2:46:30 PM</v>
+      </c>
+      <c r="G15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L15" t="str">
+        <v>None</v>
+      </c>
+      <c r="M15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S15" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B16" t="str">
+        <v>vanilla_oreo</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <v>3700</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Be 2 layers</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2/7/2025, 7:30:19 PM</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Green with blue</v>
+      </c>
+      <c r="H16" t="str">
+        <v>COCOMELON</v>
+      </c>
+      <c r="I16" t="str">
+        <v xml:space="preserve">Red </v>
+      </c>
+      <c r="J16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L16" t="str">
+        <v>None</v>
+      </c>
+      <c r="M16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S16" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B17" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C17" t="str">
+        <v>6</v>
+      </c>
+      <c r="D17" t="str">
+        <v>700</v>
+      </c>
+      <c r="E17" t="str">
+        <v>tfjcgygyjm</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2/7/2025, 9:38:54 PM</v>
+      </c>
+      <c r="G17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L17" t="str">
+        <v>None</v>
+      </c>
+      <c r="M17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S17" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B18" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C18" t="str">
+        <v>6</v>
+      </c>
+      <c r="D18" t="str">
+        <v>700</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Wayne</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2/8/2025, 11:32:50 AM</v>
+      </c>
+      <c r="G18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L18" t="str">
+        <v>None</v>
+      </c>
+      <c r="M18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S18" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B19" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C19" t="str">
+        <v>6</v>
+      </c>
+      <c r="D19" t="str">
+        <v>700</v>
+      </c>
+      <c r="E19" t="str">
+        <v>efsdfv</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2/8/2025, 12:16:05 PM</v>
+      </c>
+      <c r="G19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L19" t="str">
+        <v>None</v>
+      </c>
+      <c r="M19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S19" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B20" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C20" t="str">
+        <v>6</v>
+      </c>
+      <c r="D20" t="str">
+        <v>700</v>
+      </c>
+      <c r="E20" t="str">
+        <v>esfdrrde</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2/8/2025, 12:28:20 PM</v>
+      </c>
+      <c r="G20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L20" t="str">
+        <v>None</v>
+      </c>
+      <c r="M20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S20" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B21" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C21" t="str">
+        <v>6</v>
+      </c>
+      <c r="D21" t="str">
+        <v>700</v>
+      </c>
+      <c r="E21" t="str">
+        <v>ertxxrth</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2/8/2025, 12:29:55 PM</v>
+      </c>
+      <c r="G21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L21" t="str">
+        <v>None</v>
+      </c>
+      <c r="M21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S21" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B22" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C22" t="str">
+        <v>6</v>
+      </c>
+      <c r="D22" t="str">
+        <v>700</v>
+      </c>
+      <c r="E22" t="str">
+        <v>gjcfjgj</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2/8/2025, 12:33:45 PM</v>
+      </c>
+      <c r="G22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L22" t="str">
+        <v>None</v>
+      </c>
+      <c r="M22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S22" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B23" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C23" t="str">
+        <v>6</v>
+      </c>
+      <c r="D23" t="str">
+        <v>700</v>
+      </c>
+      <c r="E23" t="str">
+        <v>ettydtdtu</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2/8/2025, 12:39:46 PM</v>
+      </c>
+      <c r="G23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L23" t="str">
+        <v>None</v>
+      </c>
+      <c r="M23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S23" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B24" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C24" t="str">
+        <v>6</v>
+      </c>
+      <c r="D24" t="str">
+        <v>700</v>
+      </c>
+      <c r="E24" t="str">
+        <v>rthxfgh</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2/8/2025, 12:43:01 PM</v>
+      </c>
+      <c r="G24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L24" t="str">
+        <v>None</v>
+      </c>
+      <c r="M24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S24" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B25" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C25" t="str">
+        <v>6</v>
+      </c>
+      <c r="D25" t="str">
+        <v>700</v>
+      </c>
+      <c r="E25" t="str">
+        <v>,kjk,j,j</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2/8/2025, 12:56:05 PM</v>
+      </c>
+      <c r="G25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L25" t="str">
+        <v>None</v>
+      </c>
+      <c r="M25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S25" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B26" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C26" t="str">
+        <v>6</v>
+      </c>
+      <c r="D26" t="str">
+        <v>700</v>
+      </c>
+      <c r="E26" t="str">
+        <v>thtsrfgt</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2/8/2025, 1:09:19 PM</v>
+      </c>
+      <c r="G26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L26" t="str">
+        <v>None</v>
+      </c>
+      <c r="M26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S26" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B27" t="str">
+        <v>passion</v>
+      </c>
+      <c r="C27" t="str">
+        <v>6</v>
+      </c>
+      <c r="D27" t="str">
+        <v>700</v>
+      </c>
+      <c r="E27" t="str">
+        <v>gnfgnghnh</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2/8/2025, 2:29:05 PM</v>
+      </c>
+      <c r="G27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L27" t="str">
+        <v>None</v>
+      </c>
+      <c r="M27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T27" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B28" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C28" t="str">
+        <v>12</v>
+      </c>
+      <c r="D28" t="str">
+        <v>1400</v>
+      </c>
+      <c r="E28" t="str">
+        <v>drfgdr</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2/8/2025, 2:53:25 PM</v>
+      </c>
+      <c r="G28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L28" t="str">
+        <v>None</v>
+      </c>
+      <c r="M28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T28" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B29" t="str">
+        <v>red_velvet</v>
+      </c>
+      <c r="C29" t="str">
+        <v>12</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1400</v>
+      </c>
+      <c r="E29" t="str">
+        <v>ergrfdgvdrfg</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2/8/2025, 2:58:39 PM</v>
+      </c>
+      <c r="G29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L29" t="str">
+        <v>None</v>
+      </c>
+      <c r="M29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T29" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B30" t="str">
+        <v>passion</v>
+      </c>
+      <c r="C30" t="str">
+        <v>12</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1400</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Sawa</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2/8/2025, 3:03:02 PM</v>
+      </c>
+      <c r="G30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L30" t="str">
+        <v>None</v>
+      </c>
+      <c r="M30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T30" t="str">
+        <v>Not Paid</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B31" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C31" t="str">
+        <v>6</v>
+      </c>
+      <c r="D31" t="str">
+        <v>700</v>
+      </c>
+      <c r="E31" t="str">
+        <v>wwwwww</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2/8/2025, 3:08:40 PM</v>
+      </c>
+      <c r="G31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L31" t="str">
+        <v>None</v>
+      </c>
+      <c r="M31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T31" t="str">
+        <v>Not Paid</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B32" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C32" t="str">
+        <v>6</v>
+      </c>
+      <c r="D32" t="str">
+        <v>700</v>
+      </c>
+      <c r="E32" t="str">
+        <v>dfrjtfcj</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2/8/2025, 3:19:48 PM</v>
+      </c>
+      <c r="G32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L32" t="str">
+        <v>None</v>
+      </c>
+      <c r="T32" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B33" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C33" t="str">
+        <v>6</v>
+      </c>
+      <c r="D33" t="str">
+        <v>700</v>
+      </c>
+      <c r="E33" t="str">
+        <v>djrjrudjdf</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2/8/2025, 3:23:20 PM</v>
+      </c>
+      <c r="G33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L33" t="str">
+        <v>None</v>
+      </c>
+      <c r="T33" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B34" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C34" t="str">
+        <v>6</v>
+      </c>
+      <c r="D34" t="str">
+        <v>700</v>
+      </c>
+      <c r="E34" t="str">
+        <v>ererfesfs</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2/8/2025, 3:27:30 PM</v>
+      </c>
+      <c r="G34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L34" t="str">
+        <v>None</v>
+      </c>
+      <c r="M34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T34" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B35" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C35" t="str">
+        <v>6</v>
+      </c>
+      <c r="D35" t="str">
+        <v>700</v>
+      </c>
+      <c r="E35" t="str">
+        <v>wegfewsfe</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2/8/2025, 3:37:34 PM</v>
+      </c>
+      <c r="G35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L35" t="str">
+        <v>None</v>
+      </c>
+      <c r="M35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T35" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B36" t="str">
+        <v>vanilla</v>
+      </c>
+      <c r="C36" t="str">
+        <v>6</v>
+      </c>
+      <c r="D36" t="str">
+        <v>700</v>
+      </c>
+      <c r="E36" t="str">
+        <v>efsdcvcsd</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2/8/2025, 3:40:14 PM</v>
+      </c>
+      <c r="G36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="L36" t="str">
+        <v>None</v>
+      </c>
+      <c r="M36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="R36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="S36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="T36" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="str">
+        <v>None</v>
+      </c>
+      <c r="G37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K37" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B38" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C38" t="str">
+        <v>12</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1400</v>
+      </c>
+      <c r="E38" t="str">
+        <v>ukltyyulkuhul,tyk</v>
+      </c>
+      <c r="G38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Red</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Sprinkles</v>
+      </c>
+      <c r="M38" t="str">
+        <v>wayne kathanzu</v>
+      </c>
+      <c r="N38" t="str">
+        <v>kimmis254@gmail.com</v>
+      </c>
+      <c r="O38" t="str">
+        <v>+254745738345</v>
+      </c>
+      <c r="P38" t="str">
+        <v>delivery</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>Nairobi</v>
+      </c>
+      <c r="R38" t="str">
+        <v>2025-02-03</v>
+      </c>
+      <c r="S38" t="str">
+        <v>23:44</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="str">
+        <v>None</v>
+      </c>
+      <c r="G39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K39" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>cupcake</v>
+      </c>
+      <c r="B40" t="str">
+        <v>red_velvet</v>
+      </c>
+      <c r="C40" t="str">
+        <v>12</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1400</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Marinate</v>
+      </c>
+      <c r="G40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Choc</v>
+      </c>
+      <c r="M40" t="str">
+        <v>wayne kathanzu</v>
+      </c>
+      <c r="N40" t="str">
+        <v>kimmis254@gmail.com</v>
+      </c>
+      <c r="O40" t="str">
+        <v>+254745738345</v>
+      </c>
+      <c r="P40" t="str">
+        <v>delivery</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>Nairobi</v>
+      </c>
+      <c r="R40" t="str">
+        <v>2025-02-11</v>
+      </c>
+      <c r="S40" t="str">
+        <v>22:53</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="str">
+        <v>None</v>
+      </c>
+      <c r="G41" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H41" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I41" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="J41" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K41" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>cake</v>
+      </c>
+      <c r="B42" t="str">
+        <v>chocolate</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E42" t="str">
+        <v>vukvukhj,jb</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Green with blue</v>
+      </c>
+      <c r="H42" t="str">
+        <v>COCOMELON</v>
+      </c>
+      <c r="I42" t="str">
+        <v xml:space="preserve">Red </v>
+      </c>
+      <c r="J42" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K42" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="M42" t="str">
+        <v>Sally</v>
+      </c>
+      <c r="N42" t="str">
+        <v>sally@gmail.com</v>
+      </c>
+      <c r="O42" t="str">
+        <v>+254745738345</v>
+      </c>
+      <c r="P42" t="str">
+        <v>delivery</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>Vietnam</v>
+      </c>
+      <c r="R42" t="str">
+        <v>2025-02-05</v>
+      </c>
+      <c r="S42" t="str">
+        <v>21:06</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V42"/>
   </ignoredErrors>
 </worksheet>
 </file>